--- a/Аспекты тестов/Набор тестов для функции split.xlsx
+++ b/Аспекты тестов/Набор тестов для функции split.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Аспекты тестирования" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Наименование</t>
   </si>
@@ -295,6 +295,12 @@
   <si>
     <t>Несколько разделителей стоят и в начале и в середине и в конце</t>
   </si>
+  <si>
+    <t>splitBy</t>
+  </si>
+  <si>
+    <t>значение по умолчанию</t>
+  </si>
 </sst>
 </file>
 
@@ -462,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -517,9 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -896,8 +899,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -2731,10 +2734,10 @@
       <c r="IV7" s="20"/>
     </row>
     <row r="8" spans="1:256" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="20"/>
@@ -3252,10 +3255,10 @@
       <c r="IV9" s="20"/>
     </row>
     <row r="10" spans="1:256" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="20"/>
@@ -3514,11 +3517,11 @@
       <c r="IV10" s="20"/>
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.45">
-      <c r="A11" s="28" t="s">
-        <v>18</v>
+      <c r="A11" s="21" t="s">
+        <v>38</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>19</v>
+      <c r="B11" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -3776,7 +3779,12 @@
       <c r="IV11" s="20"/>
     </row>
     <row r="12" spans="1:256" x14ac:dyDescent="0.45">
-      <c r="A12" s="27"/>
+      <c r="A12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6094,7 +6102,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -8210,7 +8218,7 @@
       <c r="A11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8218,7 +8226,7 @@
       <c r="A12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8226,7 +8234,7 @@
       <c r="A13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8234,21 +8242,21 @@
       <c r="A14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="31"/>
     </row>
     <row r="16" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
